--- a/개인적인/이혼증거/재산목록/월급과월세내역및생활비예상내가가져간금액계좌내역으로작성(공동재산과개인재산).xlsx
+++ b/개인적인/이혼증거/재산목록/월급과월세내역및생활비예상내가가져간금액계좌내역으로작성(공동재산과개인재산).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pythonEduNoteTxt\개인적인\이혼증거\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pythonEduNoteTxt\개인적인\이혼증거\재산목록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA292C-A010-4440-816E-A1976B472A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5632BD3C-656E-4816-9375-A0EDB13CF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,11 +448,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,8 +463,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,10 +798,10 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -825,12 +825,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -839,10 +839,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -859,10 +859,10 @@
       <c r="G4" s="3">
         <v>-100000</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
@@ -881,10 +881,10 @@
       <c r="G5" s="3">
         <v>-100000</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -903,10 +903,10 @@
       <c r="G6" s="3">
         <v>-100000</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -925,10 +925,10 @@
       <c r="G7" s="3">
         <v>-100000</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -947,10 +947,10 @@
       <c r="G8" s="3">
         <v>-100000</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -969,10 +969,10 @@
       <c r="G9" s="3">
         <v>-100000</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -989,12 +989,12 @@
       <c r="G10" s="3">
         <v>-100000</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1011,10 +1011,10 @@
       <c r="G11" s="3">
         <v>-100000</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1033,10 +1033,10 @@
       <c r="G12" s="3">
         <v>-100000</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1053,10 +1053,10 @@
       <c r="G13" s="3">
         <v>-100000</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1073,10 +1073,10 @@
       <c r="G14" s="3">
         <v>-100000</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1093,10 +1093,10 @@
       <c r="G15" s="3">
         <v>-100000</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1113,10 +1113,10 @@
       <c r="G16" s="3">
         <v>-100000</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1133,12 +1133,12 @@
       <c r="G17" s="3">
         <v>-100000</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1155,10 +1155,10 @@
       <c r="G18" s="3">
         <v>-100000</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1175,10 +1175,10 @@
       <c r="G19" s="3">
         <v>-100000</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1195,10 +1195,10 @@
       <c r="G20" s="3">
         <v>-100000</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
@@ -1215,10 +1215,10 @@
       <c r="G21" s="3">
         <v>-100000</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1235,10 +1235,10 @@
       <c r="G22" s="3">
         <v>-100000</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1255,10 +1255,10 @@
       <c r="G23" s="3">
         <v>-100000</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1277,10 +1277,10 @@
       <c r="G24" s="3">
         <v>-100000</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -1297,10 +1297,10 @@
       <c r="G25" s="3">
         <v>-100000</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1317,12 +1317,12 @@
       <c r="G26" s="3">
         <v>-100000</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1339,10 +1339,10 @@
       <c r="G27" s="3">
         <v>-100000</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="7"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1359,10 +1359,10 @@
       <c r="G28" s="3">
         <v>-100000</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1379,10 +1379,10 @@
       <c r="G29" s="3">
         <v>-100000</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="7"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="G30" s="3">
         <v>-100000</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1419,10 +1419,10 @@
       <c r="G31" s="3">
         <v>-100000</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1439,10 +1439,10 @@
       <c r="G32" s="3">
         <v>-100000</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="G33" s="3">
         <v>-100000</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
@@ -1479,10 +1479,10 @@
       <c r="G34" s="3">
         <v>-100000</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1499,10 +1499,10 @@
       <c r="G35" s="3">
         <v>-100000</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1521,12 +1521,12 @@
       <c r="G36" s="3">
         <v>-100000</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
@@ -1543,10 +1543,10 @@
       <c r="G37" s="3">
         <v>-100000</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
@@ -1563,10 +1563,10 @@
       <c r="G38" s="3">
         <v>-100000</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
@@ -1583,10 +1583,10 @@
       <c r="G39" s="3">
         <v>-100000</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -1603,10 +1603,10 @@
       <c r="G40" s="3">
         <v>-100000</v>
       </c>
-      <c r="H40" s="7"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="7"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1623,10 +1623,10 @@
       <c r="G41" s="3">
         <v>-100000</v>
       </c>
-      <c r="H41" s="7"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
@@ -1663,12 +1663,12 @@
       <c r="G43" s="3">
         <v>-100000</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
@@ -1686,10 +1686,10 @@
       <c r="G44" s="3">
         <v>-100000</v>
       </c>
-      <c r="H44" s="7"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
@@ -1706,10 +1706,10 @@
       <c r="G45" s="3">
         <v>-100000</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="2" t="s">
         <v>6</v>
       </c>
@@ -1726,10 +1726,10 @@
       <c r="G46" s="3">
         <v>-100000</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -1746,10 +1746,10 @@
       <c r="G47" s="3">
         <v>-100000</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1769,10 +1769,10 @@
       <c r="G48" s="3">
         <v>-100000</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="2" t="s">
         <v>13</v>
       </c>
@@ -1790,10 +1790,10 @@
       <c r="G49" s="3">
         <v>-100000</v>
       </c>
-      <c r="H49" s="7"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
@@ -1811,10 +1811,10 @@
       <c r="G50" s="3">
         <v>-100000</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="7"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="2" t="s">
         <v>19</v>
       </c>
@@ -1832,10 +1832,10 @@
       <c r="G51" s="3">
         <v>-100000</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="2" t="s">
         <v>14</v>
       </c>
@@ -1853,10 +1853,10 @@
       <c r="G52" s="3">
         <v>-100000</v>
       </c>
-      <c r="H52" s="7"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
@@ -1874,10 +1874,10 @@
       <c r="G53" s="3">
         <v>-100000</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1895,10 +1895,10 @@
       <c r="G54" s="3">
         <v>-100000</v>
       </c>
-      <c r="H54" s="7"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
@@ -1916,10 +1916,10 @@
       <c r="G55" s="3">
         <v>-100000</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
@@ -1937,10 +1937,10 @@
       <c r="G56" s="3">
         <v>-100000</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="2" t="s">
         <v>10</v>
       </c>
@@ -1958,10 +1958,10 @@
       <c r="G57" s="3">
         <v>-100000</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
@@ -1978,10 +1978,10 @@
       <c r="G58" s="3">
         <v>-100000</v>
       </c>
-      <c r="H58" s="7"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1996,12 +1996,12 @@
       <c r="G59" s="3">
         <v>-100000</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2018,10 +2018,10 @@
       <c r="G60" s="3">
         <v>-100000</v>
       </c>
-      <c r="H60" s="7"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="2" t="s">
         <v>13</v>
       </c>
@@ -2038,10 +2038,10 @@
       <c r="G61" s="3">
         <v>-100000</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="G62" s="3">
         <v>-100000</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
@@ -2090,6 +2090,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H43:H58"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="A60:A62"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="H2:H9"/>
@@ -2098,12 +2104,6 @@
     <mergeCell ref="H17:H25"/>
     <mergeCell ref="A24:A35"/>
     <mergeCell ref="H26:H35"/>
-    <mergeCell ref="A36:A47"/>
-    <mergeCell ref="H36:H41"/>
-    <mergeCell ref="H43:H58"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="A60:A62"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2119,7 +2119,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2138,57 +2138,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I3">
@@ -2199,25 +2199,25 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I4">
@@ -2228,25 +2228,25 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I5">
@@ -2257,23 +2257,23 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I6">
@@ -2282,30 +2282,30 @@
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I7">
@@ -2314,30 +2314,30 @@
       <c r="J7">
         <v>4330000</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I8">
@@ -2346,16 +2346,16 @@
       <c r="J8">
         <v>3000000</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I9">
@@ -2368,19 +2368,19 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2397,11 +2397,11 @@
         <v>266535715</v>
       </c>
       <c r="E19">
-        <v>45000000</v>
+        <v>100000000</v>
       </c>
       <c r="F19">
         <f>J9+(D19*B19)+(E19*0.5)</f>
-        <v>319226732.5</v>
+        <v>346726732.5</v>
       </c>
     </row>
   </sheetData>
